--- a/data/trans_dic/P16A19_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A19_2023-Provincia-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,35</t>
+          <t>0,12; 4,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,13</t>
+          <t>0,15; 2,08</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,52</t>
+          <t>0,27; 2,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,29</t>
+          <t>0,28; 2,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,85</t>
+          <t>0,43; 1,78</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,3</t>
+          <t>0,53; 3,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,79</t>
+          <t>1,25; 3,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,74</t>
+          <t>1,09; 2,76</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,72</t>
+          <t>0,28; 1,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,01</t>
+          <t>0,13; 1,07</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,91</t>
+          <t>0,08; 1,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,89</t>
+          <t>0,71; 2,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,91</t>
+          <t>0,56; 1,85</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,3</t>
+          <t>1,05; 4,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,16</t>
+          <t>0,8; 3,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,2</t>
+          <t>1,21; 3,1</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,9</t>
+          <t>1,02; 3,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,42</t>
+          <t>1,21; 3,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,15</t>
+          <t>1,45; 3,18</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,06</t>
+          <t>0,11; 1,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,08</t>
+          <t>0,69; 2,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,25</t>
+          <t>0,5; 1,28</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,52</t>
+          <t>0,75; 1,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,81</t>
+          <t>1,12; 1,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,55</t>
+          <t>1,03; 1,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A19_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A19_2023-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A19_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A19_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 4,23</t>
+          <t>0,18; 3,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,08</t>
+          <t>0,15; 2,13</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,45</t>
+          <t>0,28; 2,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,4</t>
+          <t>0,3; 2,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,78</t>
+          <t>0,44; 1,85</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,25</t>
+          <t>0,31; 3,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,82</t>
+          <t>1,27; 3,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,76</t>
+          <t>1,02; 2,74</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,94</t>
+          <t>0,3; 1,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,07</t>
+          <t>0,13; 1,01</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,84</t>
+          <t>0,08; 1,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,75</t>
+          <t>0,71; 2,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,85</t>
+          <t>0,55; 1,91</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,23</t>
+          <t>1,08; 4,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,48</t>
+          <t>0,67; 3,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,1</t>
+          <t>1,21; 3,2</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,72</t>
+          <t>0,93; 3,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,38</t>
+          <t>1,24; 3,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,18</t>
+          <t>1,44; 3,15</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,03</t>
+          <t>0,11; 1,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,0</t>
+          <t>0,7; 2,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,28</t>
+          <t>0,48; 1,25</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,56</t>
+          <t>0,72; 1,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,8</t>
+          <t>1,12; 1,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,57</t>
+          <t>1,02; 1,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A19_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A19_2023-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,81%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,35</t>
+          <t>0,17; 3,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 3,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,13</t>
+          <t>0,15; 2,5</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,92%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,52</t>
+          <t>0,28; 2,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,29</t>
+          <t>0,31; 2,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,85</t>
+          <t>0,42; 1,82</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,3</t>
+          <t>0,3; 3,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,79</t>
+          <t>1,26; 3,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0; 1,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>0; 2,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,72</t>
+          <t>0,23; 1,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,01</t>
+          <t>0,11; 0,9</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,1%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,91</t>
+          <t>0,09; 1,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,89</t>
+          <t>0,72; 2,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,91</t>
+          <t>0,56; 1,94</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,3</t>
+          <t>1,06; 4,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,16</t>
+          <t>0,68; 3,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,2</t>
+          <t>1,2; 3,15</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,9</t>
+          <t>0,93; 3,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,42</t>
+          <t>0,8; 3,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,15</t>
+          <t>1,15; 2,95</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,06</t>
+          <t>0,07; 0,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,08</t>
+          <t>0,72; 2,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,25</t>
+          <t>0,39; 1,21</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,52</t>
+          <t>0,68; 1,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,81</t>
+          <t>1,03; 1,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,55</t>
+          <t>0,95; 1,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A19_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A19_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -739,7 +740,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,82</t>
+          <t>0,12; 5,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +760,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,68</t>
+          <t>0,0; 2,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +780,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,5</t>
+          <t>0,14; 2,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,49</t>
+          <t>0,31; 2,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +900,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,26</t>
+          <t>0,29; 2,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +920,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,82</t>
+          <t>0,4; 1,73</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,32</t>
+          <t>0,34; 3,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,77</t>
+          <t>1,26; 3,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,74</t>
+          <t>1,07; 2,91</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1180,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,56</t>
+          <t>0,2; 1,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,9</t>
+          <t>0,15; 0,85</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1300,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,94</t>
+          <t>0,09; 1,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1320,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,9</t>
+          <t>0,73; 2,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1340,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,94</t>
+          <t>0,55; 2,04</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1439,7 +1440,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,21</t>
+          <t>1,04; 4,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,15</t>
+          <t>0,82; 3,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,14 +1480,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,15</t>
+          <t>1,21; 3,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1579,7 +1580,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,96</t>
+          <t>0,96; 4,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1600,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,08</t>
+          <t>0,86; 3,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,95</t>
+          <t>1,14; 2,95</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1720,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,9</t>
+          <t>0,07; 0,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1740,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,12</t>
+          <t>0,77; 2,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1760,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,21</t>
+          <t>0,4; 1,17</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1860,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,52</t>
+          <t>0,66; 1,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1880,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,73</t>
+          <t>1,01; 1,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1900,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,5</t>
+          <t>0,96; 1,48</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3328</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1566</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4894</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1966</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2142</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>360; 16594</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2095</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2161</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1939</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8265</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2024</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2064</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>839; 16745</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9535</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2025</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1987</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2021</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1580; 12332</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1921</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2021</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1981</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1515; 11070</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1986</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4151; 17792</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7794</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>11858</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1869</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1821</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1063; 10226</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1890</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2051</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1836</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4398; 12980</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1939</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1835</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7142; 19352</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3104</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3104</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1941</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2026</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1836</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1909</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>931; 7418</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1902</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2025</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1983</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1183; 6726</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4259</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1885</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>161; 3329</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1874</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1796</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1528; 6095</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1860</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2148; 7901</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6112</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4291</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>10402</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1984</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1979</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2802; 11476</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1945</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1857</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2112; 8110</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1979</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1973</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6393; 16765</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>12842</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>16365</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>29207</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2023</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2176</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>5982; 24975</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2004</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2069</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1958</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>7265; 25571</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2075</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>16752; 43398</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>3102</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>8974</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>12075</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1961</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2041</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>640; 8027</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1989</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2082</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>5482; 14349</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1977</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2062</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>6561; 19262</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>35657</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>49678</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>85335</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2032</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>22942; 51706</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2064</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>36827; 63138</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1982</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2033</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1997</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>68421; 105155</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>